--- a/s_pics/tablets_matches.xlsx
+++ b/s_pics/tablets_matches.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,12 +401,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>apple ipad air 2019  oro</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>apple ipad air 3 (2019) 64gb wi-fi - oro (reacondicionado)</t>
+          <t>2020 apple macbook pro con chip m1 de apple (de 13 pulgadas, 8 gb ram, 512 gb ssd) - plata</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -416,26 +416,41 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-10-5-Tablet-Renewed/dp/B07YYLLJVD/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2019+oro&amp;qid=1630773594&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A02737831QR9IM899WFD7&amp;url=%2FApple-MacBook-Chip-13-Pulgadas-512-GB%2Fdp%2FB08N5V4CKB%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dmacbook%2Bpro%2B13%2Bpulgadas%2B2020%26qid%3D1630851383%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630851383&amp;id=101456194347262&amp;widgetName=sp_atf</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>############################################################################</t>
+          <t>macbook pro 13 pulgadas 2020</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2020 apple macbook pro con chip m1 de apple (de 13 pulgadas, 8 gb ram, 256 gb ssd) - gris espacial</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-MacBook-Pro-Chip-13-Pulgadas/dp/B08N5WRTN2/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851383&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>apple ipad air 2 gris espacial</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020 apple ipad air (de 10,9 pulgadas, con wi-fi y 64 gb) - gris espacial (4.ª generación)</t>
+          <t>2020 apple macbook pro con chip m1 de apple (de 13 pulgadas, 8 gb ram, 512 gb ssd) - gris espacial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -445,19 +460,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A04279091QU34UKKA3IOP&amp;url=%2FNuevo-Apple-iPad-Air-Pulgadas-Wi-Fi%2Fdp%2FB08J6DKCQW%2Fref%3Dsr_1_2_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dapple%2Bipad%2Bair%2B2%2Bgris%2Bespacial%26qid%3D1630773607%26s%3Delectronics%26sr%3D1-2-spons%26psc%3D1&amp;qualifier=1630773607&amp;id=8538773400221355&amp;widgetName=sp_atf</t>
+          <t>https://www.amazon.es/Apple-MacBook-Chip-13-Pulgadas-512-GB/dp/B08N5VT5SV/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851383&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>apple ipad air 2 gris espacial</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020 apple ipad air (de 10,9 pulgadas, con wi-fi y 64 gb) - gris espacial (4.ª generación)</t>
+          <t>2020 apple macbook pro (de 13 pulgadas, chip i5 de intel, 16 gb ram, 1 tb almacenamiento ssd, magic keyboard, cuatro puertos thunderbolt 3) - gris espacial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -467,19 +482,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Nuevo-Apple-iPad-Air-Pulgadas-Wi-Fi/dp/B08J6DKCQW/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+gris+espacial&amp;qid=1630773607&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Apple-MacBook-13-pulgadas-Almacenamiento-Keyboard/dp/B08838RJHF/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851383&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>apple ipad air 2 gris espacial</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>apple ipad air 2 128gb wi-fi - gris espacial (reacondicionado)</t>
+          <t>2020 apple macbook pro (de 13 pulgadas, chip i5 de intel, 16 gb ram, 512 gb almacenamiento ssd, magic keyboard, cuatro puertos thunderbolt 3) - plata</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -489,19 +504,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-128GB-Gris-Reacondicionado/dp/B07GXT4Y6P/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+gris+espacial&amp;qid=1630773607&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Apple-MacBook-13-pulgadas-Almacenamiento-Keyboard/dp/B08834TZ24/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851383&amp;s=electronics&amp;sr=1-7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>apple ipad air 2 gris espacial</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>apple ipad air 2 16gb wi-fi - gris espacial (reacondicionado)</t>
+          <t>2020 apple macbook pro con chip m1 de apple (de 13 pulgadas, 8 gb ram, 256 gb ssd) - plata</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -511,19 +526,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-Air-16GB-Wi-Fi/dp/B07HJ2S8WS/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+gris+espacial&amp;qid=1630773607&amp;s=electronics&amp;sr=1-6</t>
+          <t>https://www.amazon.es/Apple-MacBook-Pro-Chip-13-Pulgadas/dp/B08N5S5HH5/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851383&amp;s=electronics&amp;sr=1-8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>apple ipad air 2 gris espacial</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>apple ipad air 2 128gb wi-fi + cellular - gris espacial - desbloqueado (reacondicionado)</t>
+          <t>2020 apple macbook pro con chip m1 de apple (de 13 pulgadas, 8 gb ram, 512 gb ssd) - plata</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -533,19 +548,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-128GB-Gris-Reacondicionado/dp/B085HYNQGP/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+gris+espacial&amp;qid=1630773607&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Apple-MacBook-Chip-13-Pulgadas-512-GB/dp/B08N5V4CKB/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851383&amp;s=electronics&amp;sr=1-9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>apple ipad air 2 gris espacial</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020 apple ipad air (de 10,9 pulgadas, con wi-fi + cellular y 64 gb) - gris espacial (4.ª generación)</t>
+          <t>2020 apple macbook pro (de 13 pulgadas, chip i5 de intel, 16 gb ram, 512 gb almacenamiento ssd, magic keyboard, cuatro puertos thunderbolt 3) - gris espacial</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -555,19 +570,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Nuevo-Apple-iPad-Air-Pulgadas-Cellular/dp/B08J6RQC3Q/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+gris+espacial&amp;qid=1630773607&amp;s=electronics&amp;sr=1-8</t>
+          <t>https://www.amazon.es/Apple-MacBook-13-pulgadas-Almacenamiento-Keyboard/dp/B08834LSGQ/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851383&amp;s=electronics&amp;sr=1-12</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>apple ipad air 2 gris espacial</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020 apple ipad air (de 10,9 pulgadas, con wi-fi y 256 gb) - gris espacial (4.ª generación)</t>
+          <t>2020 apple macbook pro (de 13 pulgadas, chip i5 de intel 16 gb ram, 1 tb almacenamiento ssd, magic keyboard, cuatro puertos thunderbolt 3) - plata</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -577,48 +592,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Nuevo-Apple-iPad-Air-Pulgadas-256-GB/dp/B08J6P9F4S/ref=sr_1_11?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+gris+espacial&amp;qid=1630773607&amp;s=electronics&amp;sr=1-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>apple ipad air 2 gris espacial</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>apple ipad air 2 128gb 4g - gris espacial - desbloqueado (reacondicionado)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Apple-iPad-Air-Tablet-Reacondicionado/dp/B07ST33WH8/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+gris+espacial&amp;qid=1630773607&amp;s=electronics&amp;sr=1-28</t>
+          <t>https://www.amazon.es/Apple-MacBook-13-pulgadas-Almacenamiento-Keyboard/dp/B088372ZH6/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851383&amp;s=electronics&amp;sr=1-17</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>############################################################################</t>
+          <t>macbook pro 16 pulgadas 2020</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2020 apple macbook pro (de 13 pulgadas, chip i5 de intel, 16 gb ram, 1 tb almacenamiento ssd, magic keyboard, cuatro puertos thunderbolt 3) - gris espacial</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/Apple-MacBook-13-pulgadas-Almacenamiento-Keyboard/dp/B08838RJHF/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+16+pulgadas+2020&amp;qid=1630851404&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>apple ipad air 2  plata</t>
+          <t>macbook pro 16 pulgadas 2020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>apple ipad air 2 16gb wi-fi - plata (reacondicionado)</t>
+          <t>2020 apple macbook pro (de 13 pulgadas, chip i5 de intel, 16 gb ram, 512 gb almacenamiento ssd, magic keyboard, cuatro puertos thunderbolt 3) - plata</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -628,19 +636,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-Wi-Fi-Plata-Reacondicionado/dp/B07ST2M4NB/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+plata&amp;qid=1630773621&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Apple-MacBook-13-pulgadas-Almacenamiento-Keyboard/dp/B08834TZ24/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+16+pulgadas+2020&amp;qid=1630851404&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>apple ipad air 2  plata</t>
+          <t>macbook pro 16 pulgadas 2020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>apple ipad air 2 64gb wi-fi - plata (reacondicionado)</t>
+          <t>2020 apple macbook pro (de 13 pulgadas, chip i5 de intel, 16 gb ram, 512 gb almacenamiento ssd, magic keyboard, cuatro puertos thunderbolt 3) - gris espacial</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -650,19 +658,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-64GB-Wi-Fi-Reacondicionado/dp/B08244Z2CF/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+plata&amp;qid=1630773621&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Apple-MacBook-13-pulgadas-Almacenamiento-Keyboard/dp/B08834LSGQ/ref=sr_1_19?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+16+pulgadas+2020&amp;qid=1630851404&amp;s=electronics&amp;sr=1-19</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>apple ipad air 2  plata</t>
+          <t>macbook pro 16 pulgadas 2020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2020 apple ipad air (de 10,9 pulgadas, con wi-fi y 64 gb) - plata (4.ª generación)</t>
+          <t>2020 apple macbook pro (de 13 pulgadas, chip i5 de intel 16 gb ram, 1 tb almacenamiento ssd, magic keyboard, cuatro puertos thunderbolt 3) - plata</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -672,48 +680,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Nuevo-Apple-iPad-Air-Pulgadas-Wi-Fi/dp/B08J69TY1D/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+plata&amp;qid=1630773621&amp;s=electronics&amp;sr=1-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>apple ipad air 2  plata</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2020 apple ipad air (de 10,9 pulgadas, con wi-fi y 256 gb) - plata (4.ª generación)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Nuevo-Apple-iPad-Air-Pulgadas-256-GB/dp/B08J6N8WJ9/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+plata&amp;qid=1630773621&amp;s=electronics&amp;sr=1-17</t>
+          <t>https://www.amazon.es/Apple-MacBook-13-pulgadas-Almacenamiento-Keyboard/dp/B088372ZH6/ref=sr_1_28?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+16+pulgadas+2020&amp;qid=1630851404&amp;s=electronics&amp;sr=1-28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>############################################################################</t>
+          <t>macbook pro 13 pulgadas 2020</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2020 apple macbook pro con chip m1 de apple (de 13 pulgadas, 8 gb ram, 512 gb ssd) - plata</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A02737831QR9IM899WFD7&amp;url=%2FApple-MacBook-Chip-13-Pulgadas-512-GB%2Fdp%2FB08N5V4CKB%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dmacbook%2Bpro%2B13%2Bpulgadas%2B2020%26qid%3D1630851417%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630851417&amp;id=7283434138478707&amp;widgetName=sp_atf</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>apple ipad air 2  oro</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2020 apple ipad air (de 10,9 pulgadas, con wi-fi y 256 gb) - oro rosa (4.ª generación)</t>
+          <t>2020 apple macbook pro con chip m1 de apple (de 13 pulgadas, 8 gb ram, 256 gb ssd) - gris espacial</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -723,19 +724,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Nuevo-Apple-iPad-Air-Pulgadas-256-GB/dp/B08J6ZHFZC/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+oro&amp;qid=1630773638&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Apple-MacBook-Pro-Chip-13-Pulgadas/dp/B08N5WRTN2/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851417&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>apple ipad air 2  oro</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>apple ipad air 2 16gb wi-fi - oro (reacondicionado)</t>
+          <t>2020 apple macbook pro con chip m1 de apple (de 13 pulgadas, 8 gb ram, 512 gb ssd) - gris espacial</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -745,19 +746,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/MH0W2LL-A/dp/B00TREI0JI/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+oro&amp;qid=1630773638&amp;s=electronics&amp;sr=1-5</t>
+          <t>https://www.amazon.es/Apple-MacBook-Chip-13-Pulgadas-512-GB/dp/B08N5VT5SV/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851417&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>apple ipad air 2  oro</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>apple ipad air 2 64gb wi-fi - oro (reacondicionado)</t>
+          <t>2020 apple macbook pro (de 13 pulgadas, chip i5 de intel, 16 gb ram, 1 tb almacenamiento ssd, magic keyboard, cuatro puertos thunderbolt 3) - gris espacial</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -767,19 +768,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-Air-64GB-Wi-Fi/dp/B07FJXSXK1/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+oro&amp;qid=1630773638&amp;s=electronics&amp;sr=1-6</t>
+          <t>https://www.amazon.es/Apple-MacBook-13-pulgadas-Almacenamiento-Keyboard/dp/B08838RJHF/ref=sr_1_6?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851417&amp;s=electronics&amp;sr=1-6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>apple ipad air 2  oro</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>apple ipad air 2 128gb 4g - oro - desbloqueado (reacondicionado)</t>
+          <t>2020 apple macbook pro (de 13 pulgadas, chip i5 de intel, 16 gb ram, 512 gb almacenamiento ssd, magic keyboard, cuatro puertos thunderbolt 3) - plata</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -789,19 +790,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-Air-128GB-Reacondicionado/dp/B07T26P1XF/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+oro&amp;qid=1630773638&amp;s=electronics&amp;sr=1-7</t>
+          <t>https://www.amazon.es/Apple-MacBook-13-pulgadas-Almacenamiento-Keyboard/dp/B08834TZ24/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851417&amp;s=electronics&amp;sr=1-7</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>apple ipad air 2  oro</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>apple ipad air 2 128gb wi-fi - oro (reacondicionado)</t>
+          <t>2020 apple macbook pro con chip m1 de apple (de 13 pulgadas, 8 gb ram, 512 gb ssd) - plata</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -811,19 +812,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-Air-pulgadas-Reacondicionado/dp/B07NYRLTGB/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+oro&amp;qid=1630773638&amp;s=electronics&amp;sr=1-8</t>
+          <t>https://www.amazon.es/Apple-MacBook-Chip-13-Pulgadas-512-GB/dp/B08N5V4CKB/ref=sr_1_8?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851417&amp;s=electronics&amp;sr=1-8</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>apple ipad air 2  oro</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>apple ipad air 2 wifi 128gb oro (reacondicionado)</t>
+          <t>2020 apple macbook pro con chip m1 de apple (de 13 pulgadas, 8 gb ram, 256 gb ssd) - plata</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -833,19 +834,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-128GB-Reacondicionado-Certificado/dp/B01LBJIAE6/ref=sr_1_10?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+oro&amp;qid=1630773638&amp;s=electronics&amp;sr=1-10</t>
+          <t>https://www.amazon.es/Apple-MacBook-Pro-Chip-13-Pulgadas/dp/B08N5S5HH5/ref=sr_1_9?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851417&amp;s=electronics&amp;sr=1-9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>apple ipad air 2  oro</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2020 apple ipad air (de 10,9 pulgadas, con wi-fi + cellular y 64 gb) - oro rosa (4.ª generación)</t>
+          <t>2020 apple macbook pro (de 13 pulgadas, chip i5 de intel, 16 gb ram, 512 gb almacenamiento ssd, magic keyboard, cuatro puertos thunderbolt 3) - gris espacial</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -855,19 +856,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Nuevo-Apple-iPad-Air-Pulgadas-Cellular/dp/B08J6L3RTT/ref=sr_1_14?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+oro&amp;qid=1630773638&amp;s=electronics&amp;sr=1-14</t>
+          <t>https://www.amazon.es/Apple-MacBook-13-pulgadas-Almacenamiento-Keyboard/dp/B08834LSGQ/ref=sr_1_12?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851417&amp;s=electronics&amp;sr=1-12</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>apple ipad air 2  oro</t>
+          <t>macbook pro 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020 apple ipad air (de 10,9 pulgadas, con wi-fi y 64 gb) - oro rosa (4.ª generación)</t>
+          <t>2020 apple macbook pro (de 13 pulgadas, chip i5 de intel 16 gb ram, 1 tb almacenamiento ssd, magic keyboard, cuatro puertos thunderbolt 3) - plata</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -877,48 +878,41 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Nuevo-Apple-iPad-Air-Pulgadas-Wi-Fi/dp/B08J6DPZ1C/ref=sr_1_15?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+oro&amp;qid=1630773638&amp;s=electronics&amp;sr=1-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>apple ipad air 2  oro</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>apple ipad air 2 16gb wi-fi - oro (reacondicionado)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Apple-MH0W2-iPad-Pulgadas-Reacondicionado/dp/B01433QBKC/ref=sr_1_20?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+air+2+oro&amp;qid=1630773638&amp;s=electronics&amp;sr=1-20</t>
+          <t>https://www.amazon.es/Apple-MacBook-13-pulgadas-Almacenamiento-Keyboard/dp/B088372ZH6/ref=sr_1_17?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+pro+13+pulgadas+2020&amp;qid=1630851417&amp;s=electronics&amp;sr=1-17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>############################################################################</t>
+          <t>macbook air 13 pulgadas 2020</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2020 apple macbook air con chip m1 de apple (de 13 pulgadas, 8 gb ram, 256 gb ssd) - plata</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A02736831O2AOANXBHP1Q&amp;url=%2FApple-MacBook-Air-Chip-13-Pulgadas%2Fdp%2FB08N5TLVQ2%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dmacbook%2Bair%2B13%2Bpulgadas%2B2020%26qid%3D1630851435%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630851435&amp;id=1788507669430950&amp;widgetName=sp_atf</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>apple ipad mini 2019 gris espacial</t>
+          <t>macbook air 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2019 apple ipad mini (de 7,9 pulgadas, con wi-fi, 64 gb) - gris espacial (5.ª generación)</t>
+          <t>2020 apple macbook air con chip m1 de apple (de 13 pulgadas, 8 gb ram, 512 gb ssd) - oro</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -928,19 +922,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A042943736FFALR8HQ4VI&amp;url=%2FApple-iPad-mini-Wi-Fi-64-GB%2Fdp%2FB07PRDL3W6%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dapple%2Bipad%2Bmini%2B2019%2Bgris%2Bespacial%26qid%3D1630773651%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630773651&amp;id=277320043470186&amp;widgetName=sp_atf</t>
+          <t>https://www.amazon.es/Apple-MacBook-Chip-13-Pulgadas-512-GB/dp/B08N5SRMLW/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+air+13+pulgadas+2020&amp;qid=1630851435&amp;s=electronics&amp;sr=1-4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>apple ipad mini 2019 gris espacial</t>
+          <t>macbook air 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2019 apple ipad mini (de 7,9 pulgadas, con wi-fi + cellular, 256 gb) - gris espacial (5.ª generación)</t>
+          <t>2020 apple macbook air con chip m1 de apple (de 13 pulgadas, 8 gb ram, 256 gb ssd) - plata</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -950,19 +944,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-mini-Tablet-Pixeles/dp/B07PSKLFRJ/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+mini+2019+gris+espacial&amp;qid=1630773651&amp;s=electronics&amp;sr=1-2</t>
+          <t>https://www.amazon.es/Apple-MacBook-Air-Chip-13-Pulgadas/dp/B08N5TLVQ2/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+air+13+pulgadas+2020&amp;qid=1630851435&amp;s=electronics&amp;sr=1-5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>apple ipad mini 2019 gris espacial</t>
+          <t>macbook air 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2019 apple ipad mini (de 7,9 pulgadas, con wi-fi, 64 gb) - gris espacial (5.ª generación)</t>
+          <t>2020 apple macbook air con chip m1 de apple (de 13 pulgadas, 8 gb ram, 512 gb ssd) - gris espacial</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -972,19 +966,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-mini-Wi-Fi-64-GB/dp/B07PRDL3W6/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+mini+2019+gris+espacial&amp;qid=1630773651&amp;s=electronics&amp;sr=1-3</t>
+          <t>https://www.amazon.es/Apple-MacBook-Chip-13-Pulgadas-512-GB/dp/B08N5TLB5J/ref=sr_1_7?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+air+13+pulgadas+2020&amp;qid=1630851435&amp;s=electronics&amp;sr=1-7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>apple ipad mini 2019 gris espacial</t>
+          <t>macbook air 13 pulgadas 2020</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2019 apple ipad mini (de 7,9 pulgadas, con wi-fi, 256 gb) - gris espacial (5.ª generación)</t>
+          <t>2020 apple macbook air con chip m1 de apple (de 13 pulgadas, 8 gb ram, 256 gb ssd) - gris espacial</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -994,129 +988,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.amazon.es/Apple-iPad-mini-Tablet-Pixeles/dp/B07PQ9C8GR/ref=sr_1_4?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+mini+2019+gris+espacial&amp;qid=1630773651&amp;s=electronics&amp;sr=1-4</t>
+          <t>https://www.amazon.es/Apple-MacBook-Air-Chip-13-Pulgadas/dp/B08N5VXMK6/ref=sr_1_22?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=macbook+air+13+pulgadas+2020&amp;qid=1630851435&amp;s=electronics&amp;sr=1-22</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
-        <is>
-          <t>apple ipad mini 2019 gris espacial</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2019 apple ipad mini (de 7,9 pulgadas, con wi-fi + cellular, 64 gb) - gris espacial (5.ª generación)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Apple-iPad-mini-Tablet-Pixeles/dp/B07PRDLBS3/ref=sr_1_5?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+mini+2019+gris+espacial&amp;qid=1630773651&amp;s=electronics&amp;sr=1-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>############################################################################</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>apple ipad mini 2019  plata</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2019 apple ipad mini (de 7,9 pulgadas, con wi-fi, 64 gb) - plata (5.ª generación)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_electronics_sr_pg1_1?ie=UTF8&amp;adId=A04292491O1ALL6N1BG8F&amp;url=%2FApple-iPad-mini-Wi-Fi-64-GB%2Fdp%2FB07PTVV9WP%2Fref%3Dsr_1_1_sspa%3F__mk_es_ES%3D%25C3%2585M%25C3%2585%25C5%25BD%25C3%2595%25C3%2591%26dchild%3D1%26keywords%3Dapple%2Bipad%2Bmini%2B2019%2Bplata%26qid%3D1630773668%26s%3Delectronics%26sr%3D1-1-spons%26psc%3D1&amp;qualifier=1630773668&amp;id=3309753262936198&amp;widgetName=sp_atf</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>apple ipad mini 2019  plata</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2019 apple ipad mini (de 7,9 pulgadas, con wi-fi, 64 gb) - plata (5.ª generación)</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Apple-iPad-mini-Wi-Fi-64-GB/dp/B07PTVV9WP/ref=sr_1_2?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+mini+2019+plata&amp;qid=1630773668&amp;s=electronics&amp;sr=1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>apple ipad mini 2019  plata</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2019 apple ipad mini (de 7,9 pulgadas, con wi-fi, 256 gb) - plata (5.ª generación)</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Apple-iPad-mini-Tablet-Pixeles/dp/B07PTVYCG5/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+mini+2019+plata&amp;qid=1630773668&amp;s=electronics&amp;sr=1-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>apple ipad mini 2019  plata</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2019 apple ipad mini (de 7,9 pulgadas, con wi-fi + cellular, 64 gb) - plata (5.ª generación)</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.amazon.es/Apple-iPad-mini-Tablet-Pixeles/dp/B07PQ9BK6W/ref=sr_1_26?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;dchild=1&amp;keywords=apple+ipad+mini+2019+plata&amp;qid=1630773668&amp;s=electronics&amp;sr=1-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
         <is>
           <t>############################################################################</t>
         </is>
